--- a/stimuli/concreteness_denotation/stimuli_concreteness_denotation_complete.xlsx
+++ b/stimuli/concreteness_denotation/stimuli_concreteness_denotation_complete.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ownCloud\projects\FakeDiamond\stimuli\concreteness_denotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlaw/ownCloud - Ryan Law@cloud.mrc-cbu.cam.ac.uk/projects/fake_diamond/stimuli/concreteness_denotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E823C41-9143-DF47-9438-99FDA239B9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2676,9 +2677,6 @@
     <t>Is it cool to the touch?</t>
   </si>
   <si>
-    <t>Is is suitable for a TV show?</t>
-  </si>
-  <si>
     <t>Is it shiny?</t>
   </si>
   <si>
@@ -2827,12 +2825,15 @@
   </si>
   <si>
     <t>Should it be repeated?</t>
+  </si>
+  <si>
+    <t>Is it suitable for a TV show?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2908,9 +2909,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2948,9 +2949,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2985,7 +2986,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3020,7 +3021,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3193,20 +3194,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>-8.7672142045533779</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>-9.2276239746389948</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>-9.7804531058651101</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3735,10 +3736,10 @@
         <v>878</v>
       </c>
       <c r="W8" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>-9.8802419201930398</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3936,10 +3937,10 @@
         <v>879</v>
       </c>
       <c r="W11" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>-10.67252258471631</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4332,10 +4333,10 @@
         <v>880</v>
       </c>
       <c r="W17" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>-8.0723258722883315</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>-8.3942612345776979</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4598,10 +4599,10 @@
         <v>881</v>
       </c>
       <c r="W21" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>-8.066530171243949</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>-9.3883154653294216</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>-7.8206670040448074</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5121,7 +5122,7 @@
         <v>-9.2402670650812304</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>-9.4198990895302064</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5254,10 +5255,10 @@
         <v>882</v>
       </c>
       <c r="W31" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>-10.041547398826751</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>-10.65950424374816</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>-7.346577665741215</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>-9.2675655629807991</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>-6.7268928182025762</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>-8.3048726654673963</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>-9.9921772490640208</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6170,10 +6171,10 @@
         <v>883</v>
       </c>
       <c r="W45" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>-9.8874340971082528</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6368,7 +6369,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6433,7 +6434,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6498,13 +6499,13 @@
         <v>-9.486138977719758</v>
       </c>
       <c r="V50" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="W50" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6569,13 +6570,13 @@
         <v>877</v>
       </c>
       <c r="V51" t="s">
-        <v>884</v>
+        <v>934</v>
       </c>
       <c r="W51" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6640,13 +6641,13 @@
         <v>877</v>
       </c>
       <c r="V52" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="W52" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6711,7 +6712,7 @@
         <v>-5.0854114085059132</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>-9.6392803960079725</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>-8.4659416807505998</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>-7.5319028405122799</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7101,13 +7102,13 @@
         <v>-9.001101686396721</v>
       </c>
       <c r="V59" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="W59" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7172,7 +7173,7 @@
         <v>-10.079395167133949</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7237,13 +7238,13 @@
         <v>877</v>
       </c>
       <c r="V61" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="W61" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>-8.7397935263898887</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>-7.4694927100906421</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7568,7 +7569,7 @@
         <v>-9.3724209256957032</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7763,13 +7764,13 @@
         <v>-10.198321128133591</v>
       </c>
       <c r="V69" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="W69" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7899,13 +7900,13 @@
         <v>-9.815990218224993</v>
       </c>
       <c r="V71" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="W71" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>78</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>79</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>80</v>
       </c>
@@ -8230,7 +8231,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>81</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>82</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>83</v>
       </c>
@@ -8425,7 +8426,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>84</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>85</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>86</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>87</v>
       </c>
@@ -8685,7 +8686,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>88</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>89</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>90</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>91</v>
       </c>
@@ -8945,7 +8946,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>92</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>93</v>
       </c>
@@ -9075,7 +9076,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>94</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>95</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>102</v>
       </c>
@@ -9270,13 +9271,13 @@
         <v>877</v>
       </c>
       <c r="V92" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W92" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>103</v>
       </c>
@@ -9341,7 +9342,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>104</v>
       </c>
@@ -9406,7 +9407,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>105</v>
       </c>
@@ -9471,7 +9472,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>106</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>107</v>
       </c>
@@ -9601,7 +9602,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>108</v>
       </c>
@@ -9666,7 +9667,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>109</v>
       </c>
@@ -9731,7 +9732,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>110</v>
       </c>
@@ -9796,7 +9797,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>111</v>
       </c>
@@ -9861,7 +9862,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>112</v>
       </c>
@@ -9926,7 +9927,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>113</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>114</v>
       </c>
@@ -10056,7 +10057,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>115</v>
       </c>
@@ -10121,13 +10122,13 @@
         <v>877</v>
       </c>
       <c r="V105" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="W105" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>116</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>117</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>118</v>
       </c>
@@ -10322,7 +10323,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>119</v>
       </c>
@@ -10387,7 +10388,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>120</v>
       </c>
@@ -10452,7 +10453,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>121</v>
       </c>
@@ -10517,7 +10518,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>122</v>
       </c>
@@ -10582,7 +10583,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>123</v>
       </c>
@@ -10647,13 +10648,13 @@
         <v>877</v>
       </c>
       <c r="V113" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="W113" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>124</v>
       </c>
@@ -10718,7 +10719,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>125</v>
       </c>
@@ -10783,7 +10784,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>150</v>
       </c>
@@ -10848,7 +10849,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>151</v>
       </c>
@@ -10913,7 +10914,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>152</v>
       </c>
@@ -10978,7 +10979,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>153</v>
       </c>
@@ -11043,7 +11044,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>154</v>
       </c>
@@ -11108,7 +11109,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>155</v>
       </c>
@@ -11173,7 +11174,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>156</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>157</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>158</v>
       </c>
@@ -11368,13 +11369,13 @@
         <v>877</v>
       </c>
       <c r="V124" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="W124" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>159</v>
       </c>
@@ -11439,7 +11440,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>160</v>
       </c>
@@ -11504,13 +11505,13 @@
         <v>877</v>
       </c>
       <c r="V126" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="W126" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>161</v>
       </c>
@@ -11575,7 +11576,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>168</v>
       </c>
@@ -11640,7 +11641,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>169</v>
       </c>
@@ -11705,7 +11706,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>170</v>
       </c>
@@ -11770,7 +11771,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>171</v>
       </c>
@@ -11835,7 +11836,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>172</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>173</v>
       </c>
@@ -11965,7 +11966,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>174</v>
       </c>
@@ -12030,7 +12031,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>175</v>
       </c>
@@ -12095,7 +12096,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>176</v>
       </c>
@@ -12160,7 +12161,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>177</v>
       </c>
@@ -12225,7 +12226,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>178</v>
       </c>
@@ -12290,13 +12291,13 @@
         <v>877</v>
       </c>
       <c r="V138" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W138" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>179</v>
       </c>
@@ -12361,7 +12362,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>186</v>
       </c>
@@ -12426,7 +12427,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>187</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>188</v>
       </c>
@@ -12556,7 +12557,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>189</v>
       </c>
@@ -12621,13 +12622,13 @@
         <v>877</v>
       </c>
       <c r="V143" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="W143" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>190</v>
       </c>
@@ -12692,7 +12693,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>191</v>
       </c>
@@ -12757,7 +12758,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>192</v>
       </c>
@@ -12822,7 +12823,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>193</v>
       </c>
@@ -12887,7 +12888,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>194</v>
       </c>
@@ -12952,7 +12953,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>195</v>
       </c>
@@ -13017,7 +13018,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>196</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>197</v>
       </c>
@@ -13147,7 +13148,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>198</v>
       </c>
@@ -13212,13 +13213,13 @@
         <v>877</v>
       </c>
       <c r="V152" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="W152" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>199</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>200</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>201</v>
       </c>
@@ -13413,7 +13414,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>202</v>
       </c>
@@ -13478,7 +13479,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>203</v>
       </c>
@@ -13543,13 +13544,13 @@
         <v>877</v>
       </c>
       <c r="V157" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="W157" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>210</v>
       </c>
@@ -13614,7 +13615,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>211</v>
       </c>
@@ -13679,7 +13680,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>212</v>
       </c>
@@ -13744,13 +13745,13 @@
         <v>877</v>
       </c>
       <c r="V160" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="W160" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>213</v>
       </c>
@@ -13815,7 +13816,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>214</v>
       </c>
@@ -13880,7 +13881,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>215</v>
       </c>
@@ -13945,7 +13946,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>216</v>
       </c>
@@ -14010,7 +14011,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>217</v>
       </c>
@@ -14075,7 +14076,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>218</v>
       </c>
@@ -14140,7 +14141,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>219</v>
       </c>
@@ -14205,7 +14206,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>220</v>
       </c>
@@ -14270,7 +14271,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>221</v>
       </c>
@@ -14335,7 +14336,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>222</v>
       </c>
@@ -14400,7 +14401,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>223</v>
       </c>
@@ -14465,7 +14466,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>224</v>
       </c>
@@ -14530,7 +14531,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>225</v>
       </c>
@@ -14595,7 +14596,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>226</v>
       </c>
@@ -14660,7 +14661,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>227</v>
       </c>
@@ -14725,7 +14726,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>234</v>
       </c>
@@ -14790,7 +14791,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>235</v>
       </c>
@@ -14855,7 +14856,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>236</v>
       </c>
@@ -14920,7 +14921,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>237</v>
       </c>
@@ -14985,7 +14986,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>238</v>
       </c>
@@ -15050,7 +15051,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>239</v>
       </c>
@@ -15115,13 +15116,13 @@
         <v>877</v>
       </c>
       <c r="V181" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="W181" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>240</v>
       </c>
@@ -15186,7 +15187,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>241</v>
       </c>
@@ -15251,13 +15252,13 @@
         <v>877</v>
       </c>
       <c r="V183" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="W183" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>242</v>
       </c>
@@ -15322,7 +15323,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>243</v>
       </c>
@@ -15387,7 +15388,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>244</v>
       </c>
@@ -15452,7 +15453,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>245</v>
       </c>
@@ -15517,7 +15518,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>246</v>
       </c>
@@ -15582,7 +15583,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>247</v>
       </c>
@@ -15647,7 +15648,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>248</v>
       </c>
@@ -15712,13 +15713,13 @@
         <v>877</v>
       </c>
       <c r="V190" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="W190" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>249</v>
       </c>
@@ -15783,7 +15784,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>250</v>
       </c>
@@ -15848,7 +15849,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>251</v>
       </c>
@@ -15913,7 +15914,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>264</v>
       </c>
@@ -15978,13 +15979,13 @@
         <v>877</v>
       </c>
       <c r="V194" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="W194" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>265</v>
       </c>
@@ -16049,7 +16050,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>266</v>
       </c>
@@ -16114,7 +16115,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>267</v>
       </c>
@@ -16179,7 +16180,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>268</v>
       </c>
@@ -16244,7 +16245,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>269</v>
       </c>
@@ -16309,7 +16310,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>276</v>
       </c>
@@ -16374,7 +16375,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>277</v>
       </c>
@@ -16439,7 +16440,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>278</v>
       </c>
@@ -16504,7 +16505,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>279</v>
       </c>
@@ -16569,13 +16570,13 @@
         <v>877</v>
       </c>
       <c r="V203" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W203" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>280</v>
       </c>
@@ -16640,7 +16641,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>281</v>
       </c>
@@ -16705,7 +16706,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>282</v>
       </c>
@@ -16770,7 +16771,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>283</v>
       </c>
@@ -16835,7 +16836,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>284</v>
       </c>
@@ -16900,7 +16901,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>285</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>286</v>
       </c>
@@ -17030,7 +17031,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>287</v>
       </c>
@@ -17095,7 +17096,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>294</v>
       </c>
@@ -17160,7 +17161,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>295</v>
       </c>
@@ -17225,7 +17226,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>296</v>
       </c>
@@ -17290,7 +17291,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>297</v>
       </c>
@@ -17355,7 +17356,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>298</v>
       </c>
@@ -17420,7 +17421,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>299</v>
       </c>
@@ -17485,7 +17486,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>300</v>
       </c>
@@ -17550,7 +17551,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>301</v>
       </c>
@@ -17615,7 +17616,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>302</v>
       </c>
@@ -17680,7 +17681,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>303</v>
       </c>
@@ -17745,7 +17746,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>304</v>
       </c>
@@ -17810,7 +17811,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>305</v>
       </c>
@@ -17875,7 +17876,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>306</v>
       </c>
@@ -17940,7 +17941,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>307</v>
       </c>
@@ -18005,7 +18006,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>308</v>
       </c>
@@ -18070,13 +18071,13 @@
         <v>877</v>
       </c>
       <c r="V226" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="W226" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>309</v>
       </c>
@@ -18141,7 +18142,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>310</v>
       </c>
@@ -18206,7 +18207,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>311</v>
       </c>
@@ -18271,7 +18272,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>318</v>
       </c>
@@ -18336,7 +18337,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>319</v>
       </c>
@@ -18401,7 +18402,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>320</v>
       </c>
@@ -18466,13 +18467,13 @@
         <v>877</v>
       </c>
       <c r="V232" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="W232" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>321</v>
       </c>
@@ -18537,7 +18538,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>322</v>
       </c>
@@ -18602,7 +18603,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>323</v>
       </c>
@@ -18667,7 +18668,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>330</v>
       </c>
@@ -18732,7 +18733,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>331</v>
       </c>
@@ -18797,7 +18798,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>332</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>333</v>
       </c>
@@ -18927,7 +18928,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>334</v>
       </c>
@@ -18992,7 +18993,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>335</v>
       </c>
@@ -19057,7 +19058,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>348</v>
       </c>
@@ -19122,7 +19123,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>349</v>
       </c>
@@ -19187,7 +19188,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>350</v>
       </c>
@@ -19252,7 +19253,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>351</v>
       </c>
@@ -19317,7 +19318,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>352</v>
       </c>
@@ -19382,7 +19383,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>353</v>
       </c>
@@ -19447,7 +19448,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>360</v>
       </c>
@@ -19512,7 +19513,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>361</v>
       </c>
@@ -19577,7 +19578,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>362</v>
       </c>
@@ -19642,7 +19643,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>363</v>
       </c>
@@ -19707,7 +19708,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>364</v>
       </c>
@@ -19772,7 +19773,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>365</v>
       </c>
@@ -19837,7 +19838,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>366</v>
       </c>
@@ -19902,7 +19903,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>367</v>
       </c>
@@ -19967,7 +19968,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>368</v>
       </c>
@@ -20032,7 +20033,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>369</v>
       </c>
@@ -20097,7 +20098,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>370</v>
       </c>
@@ -20162,7 +20163,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>371</v>
       </c>
@@ -20227,7 +20228,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>372</v>
       </c>
@@ -20292,7 +20293,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>373</v>
       </c>
@@ -20357,7 +20358,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>374</v>
       </c>
@@ -20422,7 +20423,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>375</v>
       </c>
@@ -20487,13 +20488,13 @@
         <v>877</v>
       </c>
       <c r="V263" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="W263" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>376</v>
       </c>
@@ -20558,7 +20559,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>377</v>
       </c>
@@ -20623,7 +20624,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>378</v>
       </c>
@@ -20688,7 +20689,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>379</v>
       </c>
@@ -20753,7 +20754,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>380</v>
       </c>
@@ -20818,7 +20819,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>381</v>
       </c>
@@ -20883,7 +20884,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>382</v>
       </c>
@@ -20948,7 +20949,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>383</v>
       </c>
@@ -21013,7 +21014,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>384</v>
       </c>
@@ -21078,7 +21079,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>385</v>
       </c>
@@ -21143,7 +21144,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>386</v>
       </c>
@@ -21208,7 +21209,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>387</v>
       </c>
@@ -21273,7 +21274,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>388</v>
       </c>
@@ -21338,7 +21339,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>389</v>
       </c>
@@ -21403,7 +21404,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>396</v>
       </c>
@@ -21468,7 +21469,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>397</v>
       </c>
@@ -21533,7 +21534,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>398</v>
       </c>
@@ -21598,7 +21599,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>399</v>
       </c>
@@ -21663,7 +21664,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>400</v>
       </c>
@@ -21728,7 +21729,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>401</v>
       </c>
@@ -21793,7 +21794,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>414</v>
       </c>
@@ -21858,7 +21859,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>415</v>
       </c>
@@ -21923,7 +21924,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>416</v>
       </c>
@@ -21988,7 +21989,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>417</v>
       </c>
@@ -22053,7 +22054,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>418</v>
       </c>
@@ -22118,7 +22119,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>419</v>
       </c>
@@ -22183,13 +22184,13 @@
         <v>877</v>
       </c>
       <c r="V289" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="W289" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>420</v>
       </c>
@@ -22254,7 +22255,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>421</v>
       </c>
@@ -22319,7 +22320,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>422</v>
       </c>
@@ -22384,7 +22385,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>423</v>
       </c>
@@ -22449,7 +22450,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>424</v>
       </c>
@@ -22514,7 +22515,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>425</v>
       </c>
@@ -22579,7 +22580,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>426</v>
       </c>
@@ -22644,7 +22645,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>427</v>
       </c>
@@ -22709,7 +22710,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>428</v>
       </c>
@@ -22774,7 +22775,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>429</v>
       </c>
@@ -22839,7 +22840,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>430</v>
       </c>
@@ -22904,7 +22905,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>431</v>
       </c>
@@ -22969,7 +22970,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>432</v>
       </c>
@@ -23034,7 +23035,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>433</v>
       </c>
@@ -23099,7 +23100,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>434</v>
       </c>
@@ -23164,7 +23165,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>435</v>
       </c>
@@ -23229,7 +23230,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>436</v>
       </c>
@@ -23294,7 +23295,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>437</v>
       </c>
@@ -23359,7 +23360,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>438</v>
       </c>
@@ -23424,7 +23425,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>439</v>
       </c>
@@ -23489,7 +23490,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>440</v>
       </c>
@@ -23554,7 +23555,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>441</v>
       </c>
@@ -23619,7 +23620,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>442</v>
       </c>
@@ -23684,7 +23685,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>443</v>
       </c>
@@ -23749,7 +23750,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>450</v>
       </c>
@@ -23814,7 +23815,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>451</v>
       </c>
@@ -23879,7 +23880,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>452</v>
       </c>
@@ -23944,7 +23945,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>453</v>
       </c>
@@ -24009,7 +24010,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>454</v>
       </c>
@@ -24074,13 +24075,13 @@
         <v>877</v>
       </c>
       <c r="V318" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="W318" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>455</v>
       </c>
@@ -24145,7 +24146,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>474</v>
       </c>
@@ -24210,7 +24211,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>475</v>
       </c>
@@ -24275,7 +24276,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>476</v>
       </c>
@@ -24340,7 +24341,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>477</v>
       </c>
@@ -24405,7 +24406,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>478</v>
       </c>
@@ -24470,7 +24471,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>479</v>
       </c>
@@ -24535,7 +24536,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>492</v>
       </c>
@@ -24600,7 +24601,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>493</v>
       </c>
@@ -24665,7 +24666,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>494</v>
       </c>
@@ -24730,7 +24731,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>495</v>
       </c>
@@ -24795,7 +24796,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>496</v>
       </c>
@@ -24860,7 +24861,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>497</v>
       </c>
@@ -24925,7 +24926,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>498</v>
       </c>
@@ -24990,7 +24991,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>499</v>
       </c>
@@ -25055,7 +25056,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>500</v>
       </c>
@@ -25120,7 +25121,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>501</v>
       </c>
@@ -25185,7 +25186,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>502</v>
       </c>
@@ -25250,7 +25251,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>503</v>
       </c>
@@ -25315,7 +25316,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>504</v>
       </c>
@@ -25380,13 +25381,13 @@
         <v>877</v>
       </c>
       <c r="V338" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="W338" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>505</v>
       </c>
@@ -25451,7 +25452,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>506</v>
       </c>
@@ -25516,7 +25517,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>507</v>
       </c>
@@ -25581,7 +25582,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>508</v>
       </c>
@@ -25646,7 +25647,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>509</v>
       </c>
@@ -25711,7 +25712,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>516</v>
       </c>
@@ -25776,7 +25777,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>517</v>
       </c>
@@ -25841,7 +25842,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>518</v>
       </c>
@@ -25906,13 +25907,13 @@
         <v>877</v>
       </c>
       <c r="V346" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="W346" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>519</v>
       </c>
@@ -25977,7 +25978,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>520</v>
       </c>
@@ -26042,7 +26043,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>521</v>
       </c>
@@ -26107,7 +26108,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>522</v>
       </c>
@@ -26172,7 +26173,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>523</v>
       </c>
@@ -26237,7 +26238,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>524</v>
       </c>
@@ -26302,7 +26303,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>525</v>
       </c>
@@ -26367,7 +26368,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>526</v>
       </c>
@@ -26432,7 +26433,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>527</v>
       </c>
@@ -26497,7 +26498,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>528</v>
       </c>
@@ -26562,7 +26563,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>529</v>
       </c>
@@ -26627,7 +26628,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>530</v>
       </c>
@@ -26692,7 +26693,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>531</v>
       </c>
@@ -26757,7 +26758,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>532</v>
       </c>
@@ -26822,7 +26823,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>533</v>
       </c>
@@ -26887,7 +26888,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>540</v>
       </c>
@@ -26952,7 +26953,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>541</v>
       </c>
@@ -27017,7 +27018,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>542</v>
       </c>
@@ -27082,7 +27083,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>543</v>
       </c>
@@ -27147,7 +27148,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>544</v>
       </c>
@@ -27212,7 +27213,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>545</v>
       </c>
@@ -27277,7 +27278,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>546</v>
       </c>
@@ -27342,13 +27343,13 @@
         <v>877</v>
       </c>
       <c r="V368" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="W368" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>547</v>
       </c>
@@ -27413,7 +27414,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>548</v>
       </c>
@@ -27478,7 +27479,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>549</v>
       </c>
@@ -27543,7 +27544,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>550</v>
       </c>
@@ -27608,7 +27609,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>551</v>
       </c>
@@ -27673,7 +27674,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>564</v>
       </c>
@@ -27738,7 +27739,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>565</v>
       </c>
@@ -27803,7 +27804,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>566</v>
       </c>
@@ -27868,7 +27869,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>567</v>
       </c>
@@ -27933,7 +27934,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>568</v>
       </c>
@@ -27998,7 +27999,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>569</v>
       </c>
@@ -28063,7 +28064,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>570</v>
       </c>
@@ -28128,7 +28129,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>571</v>
       </c>
@@ -28193,7 +28194,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>572</v>
       </c>
@@ -28258,13 +28259,13 @@
         <v>877</v>
       </c>
       <c r="V382" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="W382" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>573</v>
       </c>
@@ -28329,7 +28330,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>574</v>
       </c>
@@ -28394,13 +28395,13 @@
         <v>877</v>
       </c>
       <c r="V384" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="W384" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>575</v>
       </c>
@@ -28465,7 +28466,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>576</v>
       </c>
@@ -28530,7 +28531,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>577</v>
       </c>
@@ -28595,7 +28596,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>578</v>
       </c>
@@ -28660,7 +28661,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>579</v>
       </c>
@@ -28725,7 +28726,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>580</v>
       </c>
@@ -28790,7 +28791,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>581</v>
       </c>
@@ -28855,13 +28856,13 @@
         <v>877</v>
       </c>
       <c r="V391" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="W391" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>588</v>
       </c>
@@ -28926,7 +28927,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>589</v>
       </c>
@@ -28991,7 +28992,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>590</v>
       </c>
@@ -29056,7 +29057,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>591</v>
       </c>
@@ -29121,7 +29122,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>592</v>
       </c>
@@ -29186,7 +29187,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>593</v>
       </c>
@@ -29251,7 +29252,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>594</v>
       </c>
@@ -29316,7 +29317,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>595</v>
       </c>
@@ -29381,7 +29382,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>596</v>
       </c>
@@ -29446,7 +29447,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>597</v>
       </c>
@@ -29511,7 +29512,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>598</v>
       </c>
@@ -29576,7 +29577,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>599</v>
       </c>
@@ -29641,7 +29642,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>600</v>
       </c>
@@ -29706,7 +29707,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>601</v>
       </c>
@@ -29771,7 +29772,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>602</v>
       </c>
@@ -29836,7 +29837,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>603</v>
       </c>
@@ -29901,7 +29902,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>604</v>
       </c>
@@ -29966,7 +29967,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>605</v>
       </c>
@@ -30031,7 +30032,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>606</v>
       </c>
@@ -30096,7 +30097,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>607</v>
       </c>
@@ -30161,7 +30162,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>608</v>
       </c>
@@ -30226,7 +30227,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>609</v>
       </c>
@@ -30291,7 +30292,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>610</v>
       </c>
@@ -30356,7 +30357,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>611</v>
       </c>
@@ -30421,7 +30422,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>624</v>
       </c>
@@ -30486,7 +30487,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>625</v>
       </c>
@@ -30551,7 +30552,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>626</v>
       </c>
@@ -30616,7 +30617,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>627</v>
       </c>
@@ -30681,7 +30682,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>628</v>
       </c>
@@ -30746,13 +30747,13 @@
         <v>877</v>
       </c>
       <c r="V420" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="W420" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>629</v>
       </c>
@@ -30817,7 +30818,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>630</v>
       </c>
@@ -30882,7 +30883,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>631</v>
       </c>
@@ -30947,7 +30948,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>632</v>
       </c>
@@ -31012,7 +31013,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>633</v>
       </c>
@@ -31077,7 +31078,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>634</v>
       </c>
@@ -31142,7 +31143,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>635</v>
       </c>
@@ -31207,7 +31208,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>636</v>
       </c>
@@ -31272,7 +31273,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>637</v>
       </c>
@@ -31337,7 +31338,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>638</v>
       </c>
@@ -31402,7 +31403,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>639</v>
       </c>
@@ -31467,7 +31468,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>640</v>
       </c>
@@ -31532,7 +31533,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>641</v>
       </c>
@@ -31597,7 +31598,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>642</v>
       </c>
@@ -31662,7 +31663,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>643</v>
       </c>
@@ -31727,7 +31728,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>644</v>
       </c>
@@ -31792,7 +31793,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>645</v>
       </c>
@@ -31857,7 +31858,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>646</v>
       </c>
@@ -31922,7 +31923,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>647</v>
       </c>
@@ -31987,7 +31988,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>648</v>
       </c>
@@ -32052,7 +32053,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>649</v>
       </c>
@@ -32117,7 +32118,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>650</v>
       </c>
@@ -32182,7 +32183,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>651</v>
       </c>
@@ -32247,7 +32248,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>652</v>
       </c>
@@ -32312,7 +32313,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>653</v>
       </c>
@@ -32377,7 +32378,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>660</v>
       </c>
@@ -32442,7 +32443,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>661</v>
       </c>
@@ -32507,7 +32508,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>662</v>
       </c>
@@ -32572,7 +32573,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>663</v>
       </c>
@@ -32637,7 +32638,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>664</v>
       </c>
@@ -32702,7 +32703,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>665</v>
       </c>
@@ -32767,7 +32768,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>666</v>
       </c>
@@ -32832,7 +32833,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>667</v>
       </c>
@@ -32897,7 +32898,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>668</v>
       </c>
@@ -32962,7 +32963,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>669</v>
       </c>
@@ -33027,7 +33028,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>670</v>
       </c>
@@ -33092,7 +33093,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>671</v>
       </c>
@@ -33157,7 +33158,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>672</v>
       </c>
@@ -33222,7 +33223,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>673</v>
       </c>
@@ -33287,13 +33288,13 @@
         <v>877</v>
       </c>
       <c r="V459" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="W459" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>674</v>
       </c>
@@ -33358,7 +33359,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>675</v>
       </c>
@@ -33423,7 +33424,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>676</v>
       </c>
@@ -33488,7 +33489,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>677</v>
       </c>
@@ -33553,7 +33554,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>678</v>
       </c>
@@ -33618,13 +33619,13 @@
         <v>877</v>
       </c>
       <c r="V464" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="W464" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>679</v>
       </c>
@@ -33689,7 +33690,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>680</v>
       </c>
@@ -33754,13 +33755,13 @@
         <v>877</v>
       </c>
       <c r="V466" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="W466" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>681</v>
       </c>
@@ -33825,7 +33826,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>682</v>
       </c>
@@ -33890,7 +33891,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>683</v>
       </c>
@@ -33955,7 +33956,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>684</v>
       </c>
@@ -34020,7 +34021,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>685</v>
       </c>
@@ -34085,7 +34086,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>686</v>
       </c>
@@ -34150,7 +34151,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>687</v>
       </c>
@@ -34215,7 +34216,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>688</v>
       </c>
@@ -34280,7 +34281,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>689</v>
       </c>
@@ -34345,7 +34346,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>696</v>
       </c>
@@ -34410,7 +34411,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>697</v>
       </c>
@@ -34475,7 +34476,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>698</v>
       </c>
@@ -34540,7 +34541,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>699</v>
       </c>
@@ -34605,7 +34606,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>700</v>
       </c>
@@ -34670,7 +34671,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>701</v>
       </c>
@@ -34735,7 +34736,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>702</v>
       </c>
@@ -34800,7 +34801,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>703</v>
       </c>
@@ -34865,7 +34866,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>704</v>
       </c>
@@ -34930,7 +34931,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>705</v>
       </c>
@@ -34995,7 +34996,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>706</v>
       </c>
@@ -35060,7 +35061,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>707</v>
       </c>
@@ -35125,7 +35126,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>708</v>
       </c>
@@ -35190,7 +35191,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>709</v>
       </c>
@@ -35255,7 +35256,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>710</v>
       </c>
@@ -35320,7 +35321,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>711</v>
       </c>
@@ -35385,7 +35386,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>712</v>
       </c>
@@ -35450,13 +35451,13 @@
         <v>877</v>
       </c>
       <c r="V492" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="W492" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>713</v>
       </c>
@@ -35521,7 +35522,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>714</v>
       </c>
@@ -35586,7 +35587,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>715</v>
       </c>
@@ -35651,7 +35652,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>716</v>
       </c>
@@ -35716,7 +35717,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>717</v>
       </c>
@@ -35781,7 +35782,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>718</v>
       </c>
@@ -35846,7 +35847,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>719</v>
       </c>
@@ -35911,7 +35912,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>720</v>
       </c>
@@ -35976,7 +35977,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>721</v>
       </c>
@@ -36041,7 +36042,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>722</v>
       </c>
@@ -36106,7 +36107,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>723</v>
       </c>
@@ -36171,7 +36172,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>724</v>
       </c>
@@ -36236,7 +36237,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>725</v>
       </c>
@@ -36301,7 +36302,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>726</v>
       </c>
@@ -36366,7 +36367,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>727</v>
       </c>
@@ -36431,7 +36432,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>728</v>
       </c>
@@ -36496,7 +36497,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>729</v>
       </c>
@@ -36561,7 +36562,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>730</v>
       </c>
@@ -36626,13 +36627,13 @@
         <v>877</v>
       </c>
       <c r="V510" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="W510" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>731</v>
       </c>
@@ -36697,7 +36698,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>732</v>
       </c>
@@ -36762,7 +36763,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>733</v>
       </c>
@@ -36827,7 +36828,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>734</v>
       </c>
@@ -36892,7 +36893,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>735</v>
       </c>
@@ -36957,7 +36958,7 @@
         <v>-7.4261450756983569</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>736</v>
       </c>
@@ -37022,7 +37023,7 @@
         <v>-9.8594843430603465</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>737</v>
       </c>
@@ -37087,13 +37088,13 @@
         <v>877</v>
       </c>
       <c r="V517" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="W517" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>738</v>
       </c>
@@ -37158,7 +37159,7 @@
         <v>-8.5949999954450877</v>
       </c>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>739</v>
       </c>
@@ -37223,7 +37224,7 @@
         <v>-10.976745029422441</v>
       </c>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>740</v>
       </c>
@@ -37288,7 +37289,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>741</v>
       </c>
@@ -37353,7 +37354,7 @@
         <v>-8.8411699097463803</v>
       </c>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>742</v>
       </c>
@@ -37418,13 +37419,13 @@
         <v>877</v>
       </c>
       <c r="V522" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="W522" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>743</v>
       </c>
@@ -37489,7 +37490,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>744</v>
       </c>
@@ -37554,13 +37555,13 @@
         <v>-8.3754698812874011</v>
       </c>
       <c r="V524" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="W524" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>745</v>
       </c>
@@ -37625,7 +37626,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>746</v>
       </c>
@@ -37690,7 +37691,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>747</v>
       </c>
@@ -37755,7 +37756,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>748</v>
       </c>
@@ -37820,7 +37821,7 @@
         <v>-10.832730522680629</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>749</v>
       </c>
@@ -37885,13 +37886,13 @@
         <v>877</v>
       </c>
       <c r="V529" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="W529" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>750</v>
       </c>
@@ -37956,13 +37957,13 @@
         <v>-8.6909639361039943</v>
       </c>
       <c r="V530" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="W530" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>751</v>
       </c>
@@ -38027,7 +38028,7 @@
         <v>-11.15715568368614</v>
       </c>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>752</v>
       </c>
@@ -38092,7 +38093,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>753</v>
       </c>
@@ -38157,13 +38158,13 @@
         <v>-9.85433115484763</v>
       </c>
       <c r="V533" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="W533" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>754</v>
       </c>
@@ -38228,7 +38229,7 @@
         <v>-10.023388556435981</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>755</v>
       </c>
@@ -38293,7 +38294,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>756</v>
       </c>
@@ -38358,7 +38359,7 @@
         <v>-7.690097871146369</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>757</v>
       </c>
@@ -38423,7 +38424,7 @@
         <v>-9.1171294726544332</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>758</v>
       </c>
@@ -38488,7 +38489,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>759</v>
       </c>
@@ -38553,7 +38554,7 @@
         <v>-9.4896257894178593</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>760</v>
       </c>
@@ -38618,7 +38619,7 @@
         <v>-9.5052349368916556</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>761</v>
       </c>
@@ -38683,13 +38684,13 @@
         <v>877</v>
       </c>
       <c r="V541" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="W541" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>762</v>
       </c>
@@ -38754,7 +38755,7 @@
         <v>-9.3464014105272852</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>763</v>
       </c>
@@ -38819,7 +38820,7 @@
         <v>-7.5570409444976931</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>764</v>
       </c>
@@ -38884,7 +38885,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>765</v>
       </c>
@@ -38949,7 +38950,7 @@
         <v>-8.0816558585451261</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>766</v>
       </c>
@@ -39014,7 +39015,7 @@
         <v>-9.9315469579530973</v>
       </c>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>767</v>
       </c>
@@ -39079,7 +39080,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>768</v>
       </c>
@@ -39144,7 +39145,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>769</v>
       </c>
@@ -39209,13 +39210,13 @@
         <v>877</v>
       </c>
       <c r="V549" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="W549" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>770</v>
       </c>
@@ -39280,7 +39281,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>771</v>
       </c>
@@ -39345,7 +39346,7 @@
         <v>-9.1071765055170513</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>772</v>
       </c>
@@ -39410,13 +39411,13 @@
         <v>-9.4158136860637995</v>
       </c>
       <c r="V552" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="W552" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>773</v>
       </c>
@@ -39481,7 +39482,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>774</v>
       </c>
@@ -39546,7 +39547,7 @@
         <v>-9.522774538765578</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>775</v>
       </c>
@@ -39611,7 +39612,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>776</v>
       </c>
@@ -39676,7 +39677,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>777</v>
       </c>
@@ -39741,13 +39742,13 @@
         <v>-8.8882825193498114</v>
       </c>
       <c r="V557" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="W557" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="558" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>778</v>
       </c>
@@ -39812,7 +39813,7 @@
         <v>-10.2916092602653</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>779</v>
       </c>
@@ -39877,7 +39878,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>780</v>
       </c>
@@ -39942,7 +39943,7 @@
         <v>-9.7350399050177714</v>
       </c>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>781</v>
       </c>
@@ -40007,7 +40008,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>782</v>
       </c>
@@ -40072,7 +40073,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>783</v>
       </c>
@@ -40137,7 +40138,7 @@
         <v>-9.6838957224908668</v>
       </c>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>784</v>
       </c>
@@ -40202,7 +40203,7 @@
         <v>-9.410159003034174</v>
       </c>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>785</v>
       </c>
@@ -40267,7 +40268,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>786</v>
       </c>
@@ -40332,7 +40333,7 @@
         <v>-9.8928457466965085</v>
       </c>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>787</v>
       </c>
@@ -40397,7 +40398,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>788</v>
       </c>
@@ -40462,13 +40463,13 @@
         <v>877</v>
       </c>
       <c r="V568" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="W568" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>789</v>
       </c>
@@ -40533,7 +40534,7 @@
         <v>-9.7983535823295824</v>
       </c>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>790</v>
       </c>
@@ -40598,7 +40599,7 @@
         <v>-9.3812161484543388</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>791</v>
       </c>
@@ -40663,13 +40664,13 @@
         <v>877</v>
       </c>
       <c r="V571" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="W571" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>792</v>
       </c>
@@ -40734,7 +40735,7 @@
         <v>-8.9271123825693639</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>793</v>
       </c>
@@ -40799,13 +40800,13 @@
         <v>-9.9097611502246359</v>
       </c>
       <c r="V573" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="W573" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>794</v>
       </c>
@@ -40870,7 +40871,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>795</v>
       </c>
@@ -40935,7 +40936,7 @@
         <v>-10.337576833634451</v>
       </c>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>796</v>
       </c>
@@ -41000,13 +41001,13 @@
         <v>877</v>
       </c>
       <c r="V576" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="W576" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="577" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>797</v>
       </c>
@@ -41071,7 +41072,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>798</v>
       </c>
@@ -41136,7 +41137,7 @@
         <v>-8.0681735390390461</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>799</v>
       </c>
@@ -41201,13 +41202,13 @@
         <v>-8.1535943035867859</v>
       </c>
       <c r="V579" t="s">
+        <v>925</v>
+      </c>
+      <c r="W579" t="s">
         <v>926</v>
       </c>
-      <c r="W579" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>800</v>
       </c>
@@ -41272,7 +41273,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>801</v>
       </c>
@@ -41337,7 +41338,7 @@
         <v>-9.3379497582164266</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>802</v>
       </c>
@@ -41402,7 +41403,7 @@
         <v>-9.740471328405512</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>803</v>
       </c>
@@ -41467,7 +41468,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>804</v>
       </c>
@@ -41532,7 +41533,7 @@
         <v>-10.519122681191281</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>805</v>
       </c>
@@ -41597,7 +41598,7 @@
         <v>-9.7590766780622147</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>806</v>
       </c>
@@ -41662,7 +41663,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>807</v>
       </c>
@@ -41727,7 +41728,7 @@
         <v>-9.7131283652420297</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>808</v>
       </c>
@@ -41792,7 +41793,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>809</v>
       </c>
@@ -41857,7 +41858,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>810</v>
       </c>
@@ -41922,7 +41923,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>811</v>
       </c>
@@ -41987,7 +41988,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>812</v>
       </c>
@@ -42052,7 +42053,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="593" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>813</v>
       </c>
@@ -42117,7 +42118,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="594" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>814</v>
       </c>
@@ -42182,7 +42183,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="595" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>815</v>
       </c>
@@ -42247,7 +42248,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="596" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>816</v>
       </c>
@@ -42312,7 +42313,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="597" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>817</v>
       </c>
@@ -42377,7 +42378,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="598" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>818</v>
       </c>
@@ -42442,7 +42443,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="599" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>819</v>
       </c>
@@ -42507,7 +42508,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="600" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>820</v>
       </c>
@@ -42572,7 +42573,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="601" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>821</v>
       </c>
@@ -42638,7 +42639,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W601"/>
+  <autoFilter ref="A1:W601" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>